--- a/함선.xlsx
+++ b/함선.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyhch\PycharmProjects\Discord1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyhch\PycharmProjects\Discord1\Akagibot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD0D99-C6B2-44BE-BE50-3ABCA7336218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52359E62-9DB5-41B0-B61E-142B34561804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{979C2759-47AE-4283-9F70-3F7CD92D3D76}"/>
+    <workbookView xWindow="5136" yWindow="1416" windowWidth="17268" windowHeight="11508" xr2:uid="{979C2759-47AE-4283-9F70-3F7CD92D3D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6796" uniqueCount="2147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6899" uniqueCount="2181">
   <si>
     <t>함선명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8134,6 +8134,142 @@
   </si>
   <si>
     <t>범용형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베아른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알제리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리슐리외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보클랭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFNF 베아른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNF 라 갈리소니에르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNF 알제리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFNF 잔 다르크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFNF 리슐리외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNF 보클랭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**변천의 비밀** : 부무장 슬롯에 주포 장비 시, 부무장의 위력 보정 45.0% 상승, 주포의 색적 범위 및 사정거리 80으로 증가, 전투 중 24초마다 특수 탄막 1회 발동. 부무중 슬롯에 폭격기 장비 시, 자신의 함재기 첫 번째 공중지원 준비 시간 50% 단축.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**예비 무장** : 자신의 항공 공격이 준비 완료된지 5초 후, 어뢰 탄막 및 함재기 편대 Lv.10 추가 발동(위력은 스킬 레벨에 비례), 한 전투 내에 최대 3회 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈리소니에르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**바이탈파트 방어** : 자신이 경순양함, 구축함으로부터 받는 화력 대미지 15.0% 감소. 출격 시, 전열함대에 경순양함, 중순양함 이외의 기타 함종이 없을 경우, 자신의 항속 4, 회피 15.0% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**심판의 탄** : 전투 진입 시, 자신의 화력, 뇌장 8.0% 상승. 주포로 5회 사격 시마다, 자신과 가장 가까운 적에게 특수 탄막으로 1회 추가 공격(위력은 스킬 레벨에 비례)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**전탄 발사II** : 주포로 8회 공격 시마다, 전탄 발사-라 갈리소니에르II 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안떴단 말이에요. 에라이.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**열풍의 굉염** : 점화 상태인 적 함선에 대해 대미지가 5.0% 상승한다. 전투 진입 20초 후, 확률적으로 점화 효과를 부여하는 특수 탄막 Lv.1(위력은 스킬 레벨에 비례) 발동. 주포 사격 시, 10초에 1번씩 40.0% 확률로 특수 탄막 발동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**신궁의 방패** : 전투 시작 시 20초간 지속되는 쉴드를 생성하며, 이후 30초마다 재생성한다. 쉴드는 어뢰 공격을 5회 막아준다. 이 쉴드의 존재 기간 동안 자신의 화력이 5.0%(15.0%) 상승하며, 구축함, 전함에 대한 대미지가 4.5%(12.0%) 상승한다. 전투 중 수동 모드로 전환하면 5초 후, 자신의 회피 5.0%(15.0%), 항속 8 상승. 자동 모드로 재전환 시 효과 발동 무효.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**전탄 발사II** : 주포로 6회 공격 시마다, 전탄 발사-알제리II 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**La Pucelle** : 자신의 로열 네이비 소속 함선에 대한 대미지 10.% 상승. 전투 진입 시, 자신이 점화 상태가 되어 30초 동안 3초마다 8의 대미지를 입는다. 피해를 입을 시 10%의 확률로 다시 점화 상태가 된다. 점화 상태에서 화력, 뇌장, 대공, 회피 20.0% 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**성녀의 기도** : 전투 시작 10초 후, 전열함대에게 쉴드를 부여한다. 20초마다 쉴드는 재생성된다. 쉴드는 자신의 내구력의 6.0%만큼의 대미지를 흡수한다. 8초간 지속. 쉴드가 8초 내 격파당할 경우, 그 함선은 2초간 모든 공격을 회피한다. 쉴드가 지속 시간을 초과하여 사라질 경우, 그 함선은 내구력이 70 회복된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**특수 탄막-잔 다르크II** : 주포로 8회 공격 시마다, 특수 탄막-잔 다르크II 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**아이리스의 깃발** : 기함으로 출격 시, 아군 아이리스 리브레 소속 함선의 화력, 뇌장, 명중, 장전 15.0% 상승하며 전투 중 대미지 6.0% 상승. 아군 비시아 성좌 소속 함선의 화력, 뇌장, 명중, 장전 15.0% 상승하며, 전투 중 받는 대미지 6.0% 감소.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**아이리스의 분노** : 장비에 고폭탄을 주포로 착용 시, 전투 중 주포 대미지 12.0% 상승. 전투마다 첫 번째 수동 포격 시, 무조건 크리티컬 발동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**아이리스의 불꽃** : "주포 발사 시, 75.0% 확률로 특수 탄막 Lv.10 전개(위력은 스킬 레벨에 비례). 특수 탄막으로 적 명중 시, 70% 확률로 특수 점화 효과(1회당 대미지 119)를 부여하고, 30초간 화력, 뇌장, 항공 스탯을 5% 감소시킨다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽리니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBT 헛소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말도 안되는 소리좀 하지마세요. 벽리니가 어딨다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fantasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**거짓 부렁** : 써근물의 증명 재료로 사용 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8507,10 +8643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8590F7B-FFE4-4EC9-AE19-309C843DE863}">
-  <dimension ref="A1:R402"/>
+  <dimension ref="A1:R408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H388" sqref="H388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -28547,7 +28683,7 @@
         <v>1225</v>
       </c>
       <c r="O378" t="s">
-        <v>19</v>
+        <v>2175</v>
       </c>
       <c r="P378" t="s">
         <v>19</v>
@@ -28611,52 +28747,52 @@
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
-        <v>1461</v>
+        <v>2147</v>
       </c>
       <c r="B380" t="s">
-        <v>1462</v>
+        <v>2153</v>
       </c>
       <c r="C380" t="s">
-        <v>1467</v>
+        <v>19</v>
       </c>
       <c r="D380" t="s">
-        <v>1740</v>
+        <v>19</v>
       </c>
       <c r="E380" t="s">
-        <v>1640</v>
+        <v>444</v>
       </c>
       <c r="F380" t="s">
-        <v>1463</v>
+        <v>12</v>
       </c>
       <c r="G380" t="s">
-        <v>1639</v>
+        <v>19</v>
       </c>
       <c r="H380" t="s">
-        <v>1468</v>
+        <v>2159</v>
       </c>
       <c r="I380" t="s">
-        <v>1470</v>
+        <v>2160</v>
       </c>
       <c r="J380" t="s">
-        <v>1469</v>
+        <v>19</v>
       </c>
       <c r="K380" t="s">
         <v>19</v>
       </c>
       <c r="L380" t="s">
-        <v>1464</v>
+        <v>19</v>
       </c>
       <c r="M380" t="s">
-        <v>1466</v>
+        <v>19</v>
       </c>
       <c r="N380" t="s">
         <v>19</v>
       </c>
       <c r="O380" t="s">
-        <v>1465</v>
+        <v>19</v>
       </c>
       <c r="P380" t="s">
-        <v>1785</v>
+        <v>19</v>
       </c>
       <c r="Q380" t="s">
         <v>19</v>
@@ -28664,49 +28800,49 @@
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
-        <v>1963</v>
+        <v>2148</v>
       </c>
       <c r="B381" t="s">
-        <v>1966</v>
+        <v>2154</v>
       </c>
       <c r="C381" t="s">
         <v>19</v>
       </c>
       <c r="D381" t="s">
-        <v>1967</v>
+        <v>19</v>
       </c>
       <c r="E381" t="s">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="F381" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G381" t="s">
-        <v>1964</v>
+        <v>19</v>
       </c>
       <c r="H381" t="s">
-        <v>19</v>
+        <v>2162</v>
       </c>
       <c r="I381" t="s">
-        <v>19</v>
+        <v>2163</v>
       </c>
       <c r="J381" t="s">
-        <v>19</v>
+        <v>2164</v>
       </c>
       <c r="K381" t="s">
         <v>19</v>
       </c>
       <c r="L381" t="s">
-        <v>1968</v>
+        <v>19</v>
       </c>
       <c r="M381" t="s">
-        <v>19</v>
+        <v>2161</v>
       </c>
       <c r="N381" t="s">
         <v>19</v>
       </c>
       <c r="O381" t="s">
-        <v>1965</v>
+        <v>19</v>
       </c>
       <c r="P381" t="s">
         <v>19</v>
@@ -28717,7 +28853,10 @@
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
-        <v>19</v>
+        <v>2149</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2155</v>
       </c>
       <c r="C382" t="s">
         <v>19</v>
@@ -28726,22 +28865,22 @@
         <v>19</v>
       </c>
       <c r="E382" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="F382" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G382" t="s">
         <v>19</v>
       </c>
       <c r="H382" t="s">
-        <v>19</v>
+        <v>2166</v>
       </c>
       <c r="I382" t="s">
-        <v>19</v>
+        <v>2167</v>
       </c>
       <c r="J382" t="s">
-        <v>19</v>
+        <v>2168</v>
       </c>
       <c r="K382" t="s">
         <v>19</v>
@@ -28767,10 +28906,10 @@
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
-        <v>19</v>
+        <v>2150</v>
       </c>
       <c r="B383" t="s">
-        <v>19</v>
+        <v>2156</v>
       </c>
       <c r="C383" t="s">
         <v>19</v>
@@ -28779,22 +28918,22 @@
         <v>19</v>
       </c>
       <c r="E383" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="F383" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G383" t="s">
-        <v>19</v>
+        <v>1975</v>
       </c>
       <c r="H383" t="s">
-        <v>19</v>
+        <v>2169</v>
       </c>
       <c r="I383" t="s">
-        <v>19</v>
+        <v>2170</v>
       </c>
       <c r="J383" t="s">
-        <v>19</v>
+        <v>2171</v>
       </c>
       <c r="K383" t="s">
         <v>19</v>
@@ -28820,10 +28959,10 @@
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
-        <v>19</v>
+        <v>2151</v>
       </c>
       <c r="B384" t="s">
-        <v>19</v>
+        <v>2157</v>
       </c>
       <c r="C384" t="s">
         <v>19</v>
@@ -28832,22 +28971,22 @@
         <v>19</v>
       </c>
       <c r="E384" t="s">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="F384" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G384" t="s">
-        <v>19</v>
+        <v>1986</v>
       </c>
       <c r="H384" t="s">
-        <v>19</v>
+        <v>2172</v>
       </c>
       <c r="I384" t="s">
-        <v>19</v>
+        <v>2174</v>
       </c>
       <c r="J384" t="s">
-        <v>19</v>
+        <v>2173</v>
       </c>
       <c r="K384" t="s">
         <v>19</v>
@@ -28871,24 +29010,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
-        <v>19</v>
+        <v>2152</v>
       </c>
       <c r="B385" t="s">
-        <v>19</v>
+        <v>2158</v>
       </c>
       <c r="C385" t="s">
-        <v>19</v>
+        <v>2165</v>
       </c>
       <c r="D385" t="s">
         <v>19</v>
       </c>
       <c r="E385" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F385" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G385" t="s">
         <v>19</v>
@@ -28920,78 +29059,84 @@
       <c r="P385" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q385" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
-        <v>19</v>
+        <v>1461</v>
       </c>
       <c r="B386" t="s">
-        <v>19</v>
+        <v>1462</v>
       </c>
       <c r="C386" t="s">
-        <v>19</v>
+        <v>1467</v>
       </c>
       <c r="D386" t="s">
-        <v>19</v>
+        <v>1740</v>
       </c>
       <c r="E386" t="s">
-        <v>19</v>
+        <v>1640</v>
       </c>
       <c r="F386" t="s">
-        <v>19</v>
+        <v>1463</v>
       </c>
       <c r="G386" t="s">
-        <v>19</v>
+        <v>1639</v>
       </c>
       <c r="H386" t="s">
-        <v>19</v>
+        <v>1468</v>
       </c>
       <c r="I386" t="s">
-        <v>19</v>
+        <v>1470</v>
       </c>
       <c r="J386" t="s">
-        <v>19</v>
+        <v>1469</v>
       </c>
       <c r="K386" t="s">
         <v>19</v>
       </c>
       <c r="L386" t="s">
-        <v>19</v>
+        <v>1464</v>
       </c>
       <c r="M386" t="s">
-        <v>19</v>
+        <v>1466</v>
       </c>
       <c r="N386" t="s">
         <v>19</v>
       </c>
       <c r="O386" t="s">
-        <v>19</v>
+        <v>1465</v>
       </c>
       <c r="P386" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.4">
+        <v>1785</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
-        <v>19</v>
+        <v>1963</v>
       </c>
       <c r="B387" t="s">
-        <v>19</v>
+        <v>1966</v>
       </c>
       <c r="C387" t="s">
         <v>19</v>
       </c>
       <c r="D387" t="s">
-        <v>19</v>
+        <v>1967</v>
       </c>
       <c r="E387" t="s">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="F387" t="s">
         <v>19</v>
       </c>
       <c r="G387" t="s">
-        <v>19</v>
+        <v>1964</v>
       </c>
       <c r="H387" t="s">
         <v>19</v>
@@ -29006,7 +29151,7 @@
         <v>19</v>
       </c>
       <c r="L387" t="s">
-        <v>19</v>
+        <v>1968</v>
       </c>
       <c r="M387" t="s">
         <v>19</v>
@@ -29015,36 +29160,39 @@
         <v>19</v>
       </c>
       <c r="O387" t="s">
-        <v>19</v>
+        <v>1965</v>
       </c>
       <c r="P387" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q387" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
-        <v>19</v>
+        <v>2176</v>
       </c>
       <c r="B388" t="s">
-        <v>19</v>
+        <v>2177</v>
       </c>
       <c r="C388" t="s">
-        <v>19</v>
+        <v>2178</v>
       </c>
       <c r="D388" t="s">
         <v>19</v>
       </c>
       <c r="E388" t="s">
-        <v>19</v>
+        <v>1640</v>
       </c>
       <c r="F388" t="s">
-        <v>19</v>
+        <v>2179</v>
       </c>
       <c r="G388" t="s">
         <v>19</v>
       </c>
       <c r="H388" t="s">
-        <v>19</v>
+        <v>2180</v>
       </c>
       <c r="I388" t="s">
         <v>19</v>
@@ -29070,8 +29218,11 @@
       <c r="P388" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q388" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>19</v>
       </c>
@@ -29120,8 +29271,11 @@
       <c r="P389" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q389" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>19</v>
       </c>
@@ -29170,8 +29324,11 @@
       <c r="P390" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q390" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>19</v>
       </c>
@@ -29221,7 +29378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -29271,7 +29428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>19</v>
       </c>
@@ -29321,7 +29478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>19</v>
       </c>
@@ -29371,7 +29528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>19</v>
       </c>
@@ -29421,7 +29578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>19</v>
       </c>
@@ -29471,7 +29628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>19</v>
       </c>
@@ -29521,7 +29678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>19</v>
       </c>
@@ -29571,7 +29728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>19</v>
       </c>
@@ -29621,7 +29778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>19</v>
       </c>
@@ -29768,6 +29925,306 @@
         <v>19</v>
       </c>
       <c r="P402" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A403" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403" t="s">
+        <v>19</v>
+      </c>
+      <c r="C403" t="s">
+        <v>19</v>
+      </c>
+      <c r="D403" t="s">
+        <v>19</v>
+      </c>
+      <c r="E403" t="s">
+        <v>19</v>
+      </c>
+      <c r="F403" t="s">
+        <v>19</v>
+      </c>
+      <c r="G403" t="s">
+        <v>19</v>
+      </c>
+      <c r="H403" t="s">
+        <v>19</v>
+      </c>
+      <c r="I403" t="s">
+        <v>19</v>
+      </c>
+      <c r="J403" t="s">
+        <v>19</v>
+      </c>
+      <c r="K403" t="s">
+        <v>19</v>
+      </c>
+      <c r="L403" t="s">
+        <v>19</v>
+      </c>
+      <c r="M403" t="s">
+        <v>19</v>
+      </c>
+      <c r="N403" t="s">
+        <v>19</v>
+      </c>
+      <c r="O403" t="s">
+        <v>19</v>
+      </c>
+      <c r="P403" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A404" t="s">
+        <v>19</v>
+      </c>
+      <c r="B404" t="s">
+        <v>19</v>
+      </c>
+      <c r="C404" t="s">
+        <v>19</v>
+      </c>
+      <c r="D404" t="s">
+        <v>19</v>
+      </c>
+      <c r="E404" t="s">
+        <v>19</v>
+      </c>
+      <c r="F404" t="s">
+        <v>19</v>
+      </c>
+      <c r="G404" t="s">
+        <v>19</v>
+      </c>
+      <c r="H404" t="s">
+        <v>19</v>
+      </c>
+      <c r="I404" t="s">
+        <v>19</v>
+      </c>
+      <c r="J404" t="s">
+        <v>19</v>
+      </c>
+      <c r="K404" t="s">
+        <v>19</v>
+      </c>
+      <c r="L404" t="s">
+        <v>19</v>
+      </c>
+      <c r="M404" t="s">
+        <v>19</v>
+      </c>
+      <c r="N404" t="s">
+        <v>19</v>
+      </c>
+      <c r="O404" t="s">
+        <v>19</v>
+      </c>
+      <c r="P404" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A405" t="s">
+        <v>19</v>
+      </c>
+      <c r="B405" t="s">
+        <v>19</v>
+      </c>
+      <c r="C405" t="s">
+        <v>19</v>
+      </c>
+      <c r="D405" t="s">
+        <v>19</v>
+      </c>
+      <c r="E405" t="s">
+        <v>19</v>
+      </c>
+      <c r="F405" t="s">
+        <v>19</v>
+      </c>
+      <c r="G405" t="s">
+        <v>19</v>
+      </c>
+      <c r="H405" t="s">
+        <v>19</v>
+      </c>
+      <c r="I405" t="s">
+        <v>19</v>
+      </c>
+      <c r="J405" t="s">
+        <v>19</v>
+      </c>
+      <c r="K405" t="s">
+        <v>19</v>
+      </c>
+      <c r="L405" t="s">
+        <v>19</v>
+      </c>
+      <c r="M405" t="s">
+        <v>19</v>
+      </c>
+      <c r="N405" t="s">
+        <v>19</v>
+      </c>
+      <c r="O405" t="s">
+        <v>19</v>
+      </c>
+      <c r="P405" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A406" t="s">
+        <v>19</v>
+      </c>
+      <c r="B406" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406" t="s">
+        <v>19</v>
+      </c>
+      <c r="D406" t="s">
+        <v>19</v>
+      </c>
+      <c r="E406" t="s">
+        <v>19</v>
+      </c>
+      <c r="F406" t="s">
+        <v>19</v>
+      </c>
+      <c r="G406" t="s">
+        <v>19</v>
+      </c>
+      <c r="H406" t="s">
+        <v>19</v>
+      </c>
+      <c r="I406" t="s">
+        <v>19</v>
+      </c>
+      <c r="J406" t="s">
+        <v>19</v>
+      </c>
+      <c r="K406" t="s">
+        <v>19</v>
+      </c>
+      <c r="L406" t="s">
+        <v>19</v>
+      </c>
+      <c r="M406" t="s">
+        <v>19</v>
+      </c>
+      <c r="N406" t="s">
+        <v>19</v>
+      </c>
+      <c r="O406" t="s">
+        <v>19</v>
+      </c>
+      <c r="P406" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A407" t="s">
+        <v>19</v>
+      </c>
+      <c r="B407" t="s">
+        <v>19</v>
+      </c>
+      <c r="C407" t="s">
+        <v>19</v>
+      </c>
+      <c r="D407" t="s">
+        <v>19</v>
+      </c>
+      <c r="E407" t="s">
+        <v>19</v>
+      </c>
+      <c r="F407" t="s">
+        <v>19</v>
+      </c>
+      <c r="G407" t="s">
+        <v>19</v>
+      </c>
+      <c r="H407" t="s">
+        <v>19</v>
+      </c>
+      <c r="I407" t="s">
+        <v>19</v>
+      </c>
+      <c r="J407" t="s">
+        <v>19</v>
+      </c>
+      <c r="K407" t="s">
+        <v>19</v>
+      </c>
+      <c r="L407" t="s">
+        <v>19</v>
+      </c>
+      <c r="M407" t="s">
+        <v>19</v>
+      </c>
+      <c r="N407" t="s">
+        <v>19</v>
+      </c>
+      <c r="O407" t="s">
+        <v>19</v>
+      </c>
+      <c r="P407" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A408" t="s">
+        <v>19</v>
+      </c>
+      <c r="B408" t="s">
+        <v>19</v>
+      </c>
+      <c r="C408" t="s">
+        <v>19</v>
+      </c>
+      <c r="D408" t="s">
+        <v>19</v>
+      </c>
+      <c r="E408" t="s">
+        <v>19</v>
+      </c>
+      <c r="F408" t="s">
+        <v>19</v>
+      </c>
+      <c r="G408" t="s">
+        <v>19</v>
+      </c>
+      <c r="H408" t="s">
+        <v>19</v>
+      </c>
+      <c r="I408" t="s">
+        <v>19</v>
+      </c>
+      <c r="J408" t="s">
+        <v>19</v>
+      </c>
+      <c r="K408" t="s">
+        <v>19</v>
+      </c>
+      <c r="L408" t="s">
+        <v>19</v>
+      </c>
+      <c r="M408" t="s">
+        <v>19</v>
+      </c>
+      <c r="N408" t="s">
+        <v>19</v>
+      </c>
+      <c r="O408" t="s">
+        <v>19</v>
+      </c>
+      <c r="P408" t="s">
         <v>19</v>
       </c>
     </row>

--- a/함선.xlsx
+++ b/함선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyhch\PycharmProjects\Discord1\Akagibot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52359E62-9DB5-41B0-B61E-142B34561804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C88CC-18FD-469C-849B-FF332BCAEB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5136" yWindow="1416" windowWidth="17268" windowHeight="11508" xr2:uid="{979C2759-47AE-4283-9F70-3F7CD92D3D76}"/>
+    <workbookView xWindow="5136" yWindow="852" windowWidth="17268" windowHeight="11508" xr2:uid="{979C2759-47AE-4283-9F70-3F7CD92D3D76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6899" uniqueCount="2181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6898" uniqueCount="2189">
   <si>
     <t>함선명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8271,13 +8271,38 @@
   <si>
     <t>**거짓 부렁** : 써근물의 증명 재료로 사용 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거울을 보시길.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://namu.wiki/w/%ED%8C%8C%EC%9D%BC:%EB%8F%8C%EA%B8%B0%EB%A6%84.jpg</t>
+  </si>
+  <si>
+    <t>https://images2.imgbox.com/d5/7e/VkdkuLdc_o.png</t>
+  </si>
+  <si>
+    <t>https://images2.imgbox.com/d4/9b/Oe7IXuTQ_o.png</t>
+  </si>
+  <si>
+    <t>https://images2.imgbox.com/ea/d5/GnmXRuHC_o.png</t>
+  </si>
+  <si>
+    <t>https://images2.imgbox.com/17/50/158FcZ4K_o.png</t>
+  </si>
+  <si>
+    <t>https://images2.imgbox.com/38/ee/HuyJIxOX_o.png</t>
+  </si>
+  <si>
+    <t>https://images2.imgbox.com/bd/84/CKvVfbv7_o.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8290,6 +8315,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -8316,7 +8349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8327,6 +8360,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8645,8 +8681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8590F7B-FFE4-4EC9-AE19-309C843DE863}">
   <dimension ref="A1:R408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H388" sqref="H388"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J374" sqref="J374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -28756,7 +28792,7 @@
         <v>19</v>
       </c>
       <c r="D380" t="s">
-        <v>19</v>
+        <v>2184</v>
       </c>
       <c r="E380" t="s">
         <v>444</v>
@@ -28809,7 +28845,7 @@
         <v>19</v>
       </c>
       <c r="D381" t="s">
-        <v>19</v>
+        <v>2186</v>
       </c>
       <c r="E381" t="s">
         <v>233</v>
@@ -28862,7 +28898,7 @@
         <v>19</v>
       </c>
       <c r="D382" t="s">
-        <v>19</v>
+        <v>2183</v>
       </c>
       <c r="E382" t="s">
         <v>316</v>
@@ -28915,7 +28951,7 @@
         <v>19</v>
       </c>
       <c r="D383" t="s">
-        <v>19</v>
+        <v>2185</v>
       </c>
       <c r="E383" t="s">
         <v>233</v>
@@ -28968,7 +29004,7 @@
         <v>19</v>
       </c>
       <c r="D384" t="s">
-        <v>19</v>
+        <v>2187</v>
       </c>
       <c r="E384" t="s">
         <v>360</v>
@@ -29020,8 +29056,8 @@
       <c r="C385" t="s">
         <v>2165</v>
       </c>
-      <c r="D385" t="s">
-        <v>19</v>
+      <c r="D385" s="4" t="s">
+        <v>2188</v>
       </c>
       <c r="E385" t="s">
         <v>11</v>
@@ -29059,8 +29095,8 @@
       <c r="P385" t="s">
         <v>19</v>
       </c>
-      <c r="Q385" t="s">
-        <v>19</v>
+      <c r="Q385" s="2">
+        <v>1.8055555555555557E-2</v>
       </c>
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.4">
@@ -29180,7 +29216,7 @@
         <v>2178</v>
       </c>
       <c r="D388" t="s">
-        <v>19</v>
+        <v>2182</v>
       </c>
       <c r="E388" t="s">
         <v>1640</v>
@@ -29189,7 +29225,7 @@
         <v>2179</v>
       </c>
       <c r="G388" t="s">
-        <v>19</v>
+        <v>2181</v>
       </c>
       <c r="H388" t="s">
         <v>2180</v>
